--- a/GUI_Plan.xlsx
+++ b/GUI_Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\GitHub\ML-GUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ML-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7520C88-530E-47A9-9443-41197E8E3492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4356ABB4-62F4-4203-B457-C887C88FEA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23010" yWindow="-16200" windowWidth="7920" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>label</t>
   </si>
   <si>
     <t>button</t>
+  </si>
+  <si>
+    <t>Textbox</t>
   </si>
 </sst>
 </file>
@@ -112,17 +115,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,12 +410,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -421,48 +424,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -470,8 +477,10 @@
       <c r="C7" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GUI_Plan.xlsx
+++ b/GUI_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ML-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4356ABB4-62F4-4203-B457-C887C88FEA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844B2A3-B0EF-4C83-9954-62D12A87D058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23010" yWindow="-16200" windowWidth="7920" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>label</t>
   </si>
@@ -33,17 +33,31 @@
     <t>button</t>
   </si>
   <si>
-    <t>Textbox</t>
+    <t>table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INPUTS </t>
+  </si>
+  <si>
+    <t>PREDICTIONS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -106,11 +120,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,6 +150,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,46 +437,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -455,32 +472,84 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GUI_Plan.xlsx
+++ b/GUI_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ML-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844B2A3-B0EF-4C83-9954-62D12A87D058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D71154-45AC-4C09-AC6A-051911433713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="2400" windowWidth="21600" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>label</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>PREDICTIONS</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>IO TABLE</t>
   </si>
 </sst>
 </file>
@@ -133,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +169,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,91 +483,113 @@
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GUI_Plan.xlsx
+++ b/GUI_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ML-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D71154-45AC-4C09-AC6A-051911433713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58120401-4F56-4335-8179-855D328AF147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="2400" windowWidth="21600" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="16800" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>label</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>IO TABLE</t>
+  </si>
+  <si>
+    <t>Checklist</t>
   </si>
 </sst>
 </file>
@@ -156,20 +159,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -455,20 +458,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C16"/>
+  <dimension ref="A2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -483,19 +486,19 @@
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -512,26 +515,26 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
@@ -546,47 +549,55 @@
       <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>

--- a/GUI_Plan.xlsx
+++ b/GUI_Plan.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ML-GUI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\GitHub\ML-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58120401-4F56-4335-8179-855D328AF147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB984EFB-66D2-4878-B372-97CAD65F74CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="16800" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>label</t>
   </si>
@@ -55,6 +66,39 @@
   </si>
   <si>
     <t>Checklist</t>
+  </si>
+  <si>
+    <t>Not up to date but ok</t>
+  </si>
+  <si>
+    <t>IMPACTS</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Impacts flowsheet</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>NMC mass</t>
+  </si>
+  <si>
+    <t>–g/L–&gt; Volume</t>
+  </si>
+  <si>
+    <t>--AcidC–&gt; Acid Volume</t>
+  </si>
+  <si>
+    <t>–impacttable–&gt; Impacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -148,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,9 +207,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -175,9 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,22 +497,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
@@ -482,25 +521,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -511,32 +550,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>0</v>
@@ -544,17 +583,20 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -563,7 +605,7 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -574,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -583,8 +625,8 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -592,8 +634,85 @@
       </c>
       <c r="C17" s="1"/>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B13:C13"/>

--- a/GUI_Plan.xlsx
+++ b/GUI_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\GitHub\ML-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB984EFB-66D2-4878-B372-97CAD65F74CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275E31EE-1A04-4189-AF6C-7C0536BC2017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>label</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>buttons</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,6 +207,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,7 +220,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,20 +504,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E26"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -525,19 +532,19 @@
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -554,26 +561,26 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -591,10 +598,10 @@
       <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -634,85 +641,96 @@
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="E20" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="E23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="E25" s="9" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="E25" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="E27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="E28" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>4</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="E26" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="E29" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B13:C13"/>

--- a/GUI_Plan.xlsx
+++ b/GUI_Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\GitHub\ML-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275E31EE-1A04-4189-AF6C-7C0536BC2017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5641DC-4563-479A-9E32-873367D1757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>label</t>
   </si>
@@ -102,6 +102,30 @@
   </si>
   <si>
     <t>buttons</t>
+  </si>
+  <si>
+    <t>Subtitle</t>
+  </si>
+  <si>
+    <t>Predict</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Plot label</t>
+  </si>
+  <si>
+    <t>Section 1</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>Section 3</t>
   </si>
 </sst>
 </file>
@@ -133,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -191,11 +215,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,10 +255,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,22 +538,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
@@ -528,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -537,7 +571,7 @@
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -546,7 +580,7 @@
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -557,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -566,7 +600,7 @@
       </c>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -575,14 +609,14 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>0</v>
@@ -593,8 +627,21 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -602,8 +649,17 @@
         <v>7</v>
       </c>
       <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -611,8 +667,17 @@
         <v>9</v>
       </c>
       <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -622,8 +687,21 @@
       <c r="C15" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -631,8 +709,17 @@
         <v>5</v>
       </c>
       <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -640,19 +727,97 @@
         <v>8</v>
       </c>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>5</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>11</v>
       </c>
@@ -661,8 +826,15 @@
       <c r="E23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>0</v>
@@ -671,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -683,7 +855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -697,7 +869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -707,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -717,7 +889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -728,7 +900,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I14:L14"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A2:C2"/>

--- a/GUI_Plan.xlsx
+++ b/GUI_Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\GitHub\ML-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5641DC-4563-479A-9E32-873367D1757E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A510A8C7-0834-4C41-88DB-8833AFD04DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20625" yWindow="0" windowWidth="8280" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>label</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Section 3</t>
+  </si>
+  <si>
+    <t>exportallplots btn</t>
   </si>
 </sst>
 </file>
@@ -243,19 +246,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,18 +543,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -566,19 +569,19 @@
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -595,26 +598,26 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9"/>
+      <c r="B7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -645,19 +648,19 @@
       <c r="A13" s="1">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="10"/>
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="9"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -670,12 +673,12 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="9"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -712,12 +715,12 @@
       <c r="H16" s="1">
         <v>3</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="9"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -812,17 +815,19 @@
       <c r="H22" s="1">
         <v>9</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="E23" t="s">
         <v>14</v>
       </c>
@@ -847,10 +852,10 @@
       <c r="A25" s="1">
         <v>0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="10"/>
       <c r="E25" t="s">
         <v>16</v>
       </c>
@@ -901,11 +906,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="B13:C13"/>
@@ -913,6 +913,11 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
